--- a/funcionarios.xlsx
+++ b/funcionarios.xlsx
@@ -3,19 +3,31 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{530D4C49-174F-CF47-BF79-6BBB796A8C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345C51B1-F155-1D49-997F-16EB75F2E497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="1700" windowWidth="26880" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1760" yWindow="1220" windowWidth="26880" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <si>
     <t>Nome</t>
   </si>
@@ -23,180 +35,90 @@
     <t>ADELITA NEVES VIEIRA</t>
   </si>
   <si>
-    <t>(17) 99779-7263</t>
-  </si>
-  <si>
     <t>ADRIANA DA SILVA MONÇÃO RESENDE</t>
   </si>
   <si>
-    <t>(17)99106-2614</t>
-  </si>
-  <si>
     <t>AILMA MARIA GONÇALVES DA SILVA</t>
   </si>
   <si>
-    <t>(17)99743-9888</t>
-  </si>
-  <si>
     <t>ALESSANDRA APARECIDA FREIRE GALANTE</t>
   </si>
   <si>
-    <t>(17)99623-4118</t>
-  </si>
-  <si>
     <t>ALINE DA COSTA SILVA BARBOSA</t>
   </si>
   <si>
-    <t>(17)99649-0284</t>
-  </si>
-  <si>
     <t>AMANDA CRISTINA GONÇALVES GUIMARÃES</t>
   </si>
   <si>
-    <t>(17)99727-4530</t>
-  </si>
-  <si>
     <t>ANA CAROLINA MARTINS</t>
   </si>
   <si>
-    <t>(35)99108-6432</t>
-  </si>
-  <si>
     <t>ANA CLAUDIA LIMA DOS SANTOS</t>
   </si>
   <si>
-    <t>(17)99605-6571</t>
-  </si>
-  <si>
     <t>ANA LUCIA BOTARO BARCO</t>
   </si>
   <si>
-    <t>(17)99758-9607</t>
-  </si>
-  <si>
     <t>ANA LUCIA GONÇALVES</t>
   </si>
   <si>
-    <t>(17)99609-4869</t>
-  </si>
-  <si>
     <t>ANA LÚCIA TRINDADE DE SOUZA GARCIA</t>
   </si>
   <si>
-    <t>(17)99609-8482</t>
-  </si>
-  <si>
     <t>ANA PAULA ABRANTES SANTOS</t>
   </si>
   <si>
-    <t>(17)99746-1763</t>
-  </si>
-  <si>
     <t>ANA SARA DA COSTA SILVA CORREIA</t>
   </si>
   <si>
     <t>ANDRE GONÇALVES DE SOUSA</t>
   </si>
   <si>
-    <t>(17)98124-1202</t>
-  </si>
-  <si>
     <t>ANDRE RENATO DORTA DE SOUZA</t>
   </si>
   <si>
-    <t>(17)99738-4420</t>
-  </si>
-  <si>
     <t>ANDRÉA APARECIDA DOS SANTOS</t>
   </si>
   <si>
-    <t>(17)99705-2748</t>
-  </si>
-  <si>
     <t>ANDREIA CRISTINA CORREIA DE JESUS</t>
   </si>
   <si>
-    <t>(17)99744-9229</t>
-  </si>
-  <si>
     <t>ANDRÉIA DIAS LUCIANELI</t>
   </si>
   <si>
-    <t>(17)99642-1772</t>
-  </si>
-  <si>
     <t>ANDREINA SILVA SOUZA</t>
   </si>
   <si>
-    <t>(17)99683-9806</t>
-  </si>
-  <si>
     <t>ANDREZA SALVIANO GARCIA</t>
   </si>
   <si>
-    <t>(17)99776-5210</t>
-  </si>
-  <si>
     <t>ANGELA DIAS OLIVEIRA</t>
   </si>
   <si>
-    <t>(17)99722-1206</t>
-  </si>
-  <si>
     <t>ANGÉLICA REGINA RIQUENA DE SOUZA COSTA</t>
   </si>
   <si>
-    <t>(17)99706-8426</t>
-  </si>
-  <si>
     <t>ANI MAIRA ABRANTES SANTOS</t>
   </si>
   <si>
-    <t>(17)99765-3249</t>
-  </si>
-  <si>
     <t>ANNABELLE SILVA SOUZA</t>
   </si>
   <si>
-    <t>(17)99603-6828</t>
-  </si>
-  <si>
     <t>AUDENICE DA SILVA PEREIRA DIAS</t>
   </si>
   <si>
-    <t>(17)99703-9096</t>
-  </si>
-  <si>
     <t>BEATRIZ PERECIN DA SILVA</t>
   </si>
   <si>
-    <t>(17)99618-9490</t>
-  </si>
-  <si>
     <t>BRUNA FIGUEIREDO</t>
   </si>
   <si>
-    <t>(16)99223-0484</t>
-  </si>
-  <si>
     <t>CELI PEREIRA DE BRITO</t>
   </si>
   <si>
-    <t>99604-6356</t>
-  </si>
-  <si>
-    <t>CHARLIANE  TRAJANO DA SILVA</t>
-  </si>
-  <si>
-    <t>(17)99765-9819</t>
-  </si>
-  <si>
     <t>CLAUDIA BELMIRA SILVA FREITAS</t>
   </si>
   <si>
-    <t>(17)99652-1755</t>
-  </si>
-  <si>
     <t>CLAUDIA RENATA SILVA DE ALMEIDA ALVES</t>
   </si>
   <si>
@@ -206,21 +128,12 @@
     <t>CRISTIANE DA CRUZ COSTA</t>
   </si>
   <si>
-    <t>(17)99781-0885</t>
-  </si>
-  <si>
     <t>DAIANA BALEEIRO FERREIRA SENSULINI</t>
   </si>
   <si>
-    <t>(17)99623-1305</t>
-  </si>
-  <si>
     <t>DAIANE FRANCISCA DE SOUZA</t>
   </si>
   <si>
-    <t>(17)99701-3504</t>
-  </si>
-  <si>
     <t>DALVA THOMAZ</t>
   </si>
   <si>
@@ -230,33 +143,18 @@
     <t>DANIELA BARBOSA BRONCA MOREIRA</t>
   </si>
   <si>
-    <t>(17)99604-9948</t>
-  </si>
-  <si>
     <t>DANIELA DE JESUS PERECIN</t>
   </si>
   <si>
-    <t>(17)99636-5590</t>
-  </si>
-  <si>
     <t>DEIBIANE DA SILVA PEREIRA</t>
   </si>
   <si>
-    <t>(17)98204-9285</t>
-  </si>
-  <si>
     <t>DENISE GONÇALVES DOS SANTOS</t>
   </si>
   <si>
-    <t>(17)99605-2658</t>
-  </si>
-  <si>
     <t>DEOCLEIDE FERREIRA MAGALHÃES</t>
   </si>
   <si>
-    <t>(17)99672-1645</t>
-  </si>
-  <si>
     <t>EDIANE DOS SANTOS BARROS</t>
   </si>
   <si>
@@ -266,639 +164,333 @@
     <t>EDUARDO COSTA DE OLIVEIRA DUARTE</t>
   </si>
   <si>
-    <t>(17)98821-9342</t>
-  </si>
-  <si>
     <t>ELAINE DELIBERTO SARTORI</t>
   </si>
   <si>
-    <t>(17)99746-2529</t>
-  </si>
-  <si>
     <t>ELAINE REZENDE</t>
   </si>
   <si>
-    <t>(17)99629-9752</t>
-  </si>
-  <si>
     <t>ELCIENE PEREIRA DA SILVA</t>
   </si>
   <si>
-    <t>(17)99628-5637</t>
-  </si>
-  <si>
     <t>ELIANA DE FREITAS PERECIN</t>
   </si>
   <si>
-    <t>(17)99713-1613</t>
-  </si>
-  <si>
     <t>ELIANA LEAL LOPES</t>
   </si>
   <si>
-    <t>(17)99635-9737</t>
-  </si>
-  <si>
     <t>ELIANE RENATA SOARES TEIXEIRA</t>
   </si>
   <si>
-    <t>(17)99193-2364</t>
-  </si>
-  <si>
     <t>ELIANE TIAGO MAIA</t>
   </si>
   <si>
     <t>ELIANE TRINDADE DE SOUZA VERRO</t>
   </si>
   <si>
-    <t>(17)997740558</t>
-  </si>
-  <si>
     <t>ELISANGELA REGINA DE SOUSA PEREIRA</t>
   </si>
   <si>
     <t>ELISETE DE AGUIAR SANTOS DA SILVA</t>
   </si>
   <si>
-    <t>(17)98807-1494</t>
-  </si>
-  <si>
     <t>ELOINA GOMES SELIME DE CINQUE</t>
   </si>
   <si>
-    <t>(17)996059763</t>
-  </si>
-  <si>
     <t>ELZA RODRIGUES DE AGUIAR</t>
   </si>
   <si>
-    <t>(17)997850125</t>
-  </si>
-  <si>
     <t>EZILENE FERREIRA LACERDA GOMES</t>
   </si>
   <si>
-    <t>(17)99774-7679</t>
-  </si>
-  <si>
     <t>FABIANA CRISTINA BOINA</t>
   </si>
   <si>
-    <t>(17)99643-8516</t>
-  </si>
-  <si>
     <t>FELIPE ALMEIDA DIAS</t>
   </si>
   <si>
     <t>FERNANDA APARECIDA BERNARDES LIBERTO MARIN</t>
   </si>
   <si>
-    <t>(17)99794-3377</t>
-  </si>
-  <si>
     <t>FLAVIA LIGIA LOPES DA SILVEIRA RIBEIRO</t>
   </si>
   <si>
-    <t>(17)99777-3066</t>
-  </si>
-  <si>
     <t>FLAVIANY APARECIDA DA SILVA</t>
   </si>
   <si>
-    <t>(17)99729-9974</t>
-  </si>
-  <si>
     <t>FRANCIÉLI ARRAIS PERECIN</t>
   </si>
   <si>
-    <t>(17)99624-7804</t>
-  </si>
-  <si>
     <t>FRANCIELY LUIZA MARQUES DA SILVA</t>
   </si>
   <si>
-    <t>(17)98846-2178</t>
-  </si>
-  <si>
     <t>FYAMA KRISLYN DOS SANTOS LACERDA</t>
   </si>
   <si>
-    <t>(17)99628-1566</t>
-  </si>
-  <si>
     <t>GABRIELA BARBOSA BRONCA SAROUTE</t>
   </si>
   <si>
-    <t>(17)99774-6459</t>
-  </si>
-  <si>
     <t>GABRIELA DA SILVA SALES SANTANA</t>
   </si>
   <si>
-    <t>(17)99624-8474</t>
-  </si>
-  <si>
     <t>GABRIELA HENRIQUE BARROS</t>
   </si>
   <si>
-    <t>(17)99788-0334</t>
-  </si>
-  <si>
     <t>GEOVANA DE OLIVEIRA FALCHI</t>
   </si>
   <si>
-    <t>(17)99143-0568</t>
-  </si>
-  <si>
     <t>GILMARA SILVANA BORINI</t>
   </si>
   <si>
-    <t>(17)99734-6933</t>
-  </si>
-  <si>
     <t>GISLAINE DIAS LUCIANELI DE SOUZA</t>
   </si>
   <si>
-    <t>(17)98123-0472</t>
-  </si>
-  <si>
     <t>HIUSTANIA MARA LUIZ DE SOUZA</t>
   </si>
   <si>
-    <t>(17)99744-0286</t>
-  </si>
-  <si>
     <t>IRACI RODRIGUES GOMES LUCIANELLI</t>
   </si>
   <si>
     <t>ISABEL CRISTINA FREITAS DE MELO</t>
   </si>
   <si>
-    <t>(17)99609-4605</t>
-  </si>
-  <si>
-    <t>ISADORA  FERNANDES DE SOUZA NOGUEIRA</t>
-  </si>
-  <si>
-    <t>(17)99651-8367</t>
-  </si>
-  <si>
     <t>IVONETE BRITO CAMPOS</t>
   </si>
   <si>
-    <t>(17)99722-2594</t>
-  </si>
-  <si>
     <t>JAMARA CASTRO SILVA</t>
   </si>
   <si>
-    <t>(17)99793-4994</t>
-  </si>
-  <si>
     <t>JEANE MARCIA DA COSTA FONSECA PIRON</t>
   </si>
   <si>
     <t>JESIEL FERNANDES DA SILVA</t>
   </si>
   <si>
-    <t>(17)99753-5959</t>
-  </si>
-  <si>
     <t>JESSICA BOMFIM DE FREITAS</t>
   </si>
   <si>
-    <t>(17)99744-6059</t>
-  </si>
-  <si>
     <t>JOCASTA NUNES BURIM</t>
   </si>
   <si>
-    <t>(17)99635-8820</t>
-  </si>
-  <si>
     <t>JOSÉ PEREIRA NETO</t>
   </si>
   <si>
-    <t>(17)98174-2910</t>
-  </si>
-  <si>
     <t>JOSIANE DA SILVA CORREIA</t>
   </si>
   <si>
-    <t>(17)99778-5481</t>
-  </si>
-  <si>
     <t>JOSIANE MARIA DA SILVA SOUZA</t>
   </si>
   <si>
-    <t>(11)95248-3279</t>
-  </si>
-  <si>
     <t>JULIA GABRIELY DOS SANTOS CARVALHO</t>
   </si>
   <si>
-    <t>(17)99751-9409</t>
-  </si>
-  <si>
     <t>JUSCELAINE MARIA DA COSTA</t>
   </si>
   <si>
-    <t>(17)99742-8868</t>
-  </si>
-  <si>
     <t>KAUANY VITÓRIA DA SILVA</t>
   </si>
   <si>
-    <t>(17)99645-6543</t>
-  </si>
-  <si>
     <t>KIVIA RENATA VIEIRA DE SOUZA ALMEIDA</t>
   </si>
   <si>
-    <t>(17)99747-8732</t>
-  </si>
-  <si>
     <t>LAIANA FLAUZINO BARBOZA</t>
   </si>
   <si>
-    <t>(17)99641-6873</t>
-  </si>
-  <si>
     <t>LARISSA LEME DE MOURA SANTOS</t>
   </si>
   <si>
-    <t>(17)99761-3305</t>
-  </si>
-  <si>
     <t>LARISSA MARTIN BORGES DE ALMEIDA</t>
   </si>
   <si>
-    <t>(17)99601-2966</t>
-  </si>
-  <si>
     <t>LEANDRO CARNEIRO RODRIGUES</t>
   </si>
   <si>
-    <t>(17)99659-3419</t>
-  </si>
-  <si>
     <t>LEANDRO MENDONÇA DA SILVA</t>
   </si>
   <si>
-    <t>(17)99744-7844</t>
-  </si>
-  <si>
     <t>LECMARA RIBEIRO GARCIA</t>
   </si>
   <si>
-    <t>(17)99752-2663</t>
-  </si>
-  <si>
     <t>LEONILDA DA FONSECA JULIO TEIXEIRA</t>
   </si>
   <si>
-    <t>(17)99621-5842</t>
-  </si>
-  <si>
     <t>LETÍCIA LUIZ DA COSTA</t>
   </si>
   <si>
-    <t>(17)99625-9121</t>
-  </si>
-  <si>
     <t>LIDIANE GOMES POLVERES</t>
   </si>
   <si>
-    <t>(17)99754-4759</t>
-  </si>
-  <si>
     <t>LIDIANE REGINA DA SILVA PEREIRA</t>
   </si>
   <si>
-    <t>(17)99791-0748</t>
-  </si>
-  <si>
     <t>LIETE MORAES SANTANA</t>
   </si>
   <si>
-    <t>(17)99755-8705</t>
-  </si>
-  <si>
     <t>LILIAN CLAUDIA PIRES DE OLIVEIRA</t>
   </si>
   <si>
     <t>LUANA MARQUES DA SILVA</t>
   </si>
   <si>
-    <t>(17)99764-3279</t>
-  </si>
-  <si>
     <t>LUANA PERPETUA MIRANDA BIAR</t>
   </si>
   <si>
-    <t>(17) 982118909</t>
-  </si>
-  <si>
     <t>LUCELIA DOS SANTOS CANDIDO</t>
   </si>
   <si>
-    <t>(17)99714-5151</t>
-  </si>
-  <si>
     <t>LUCIANA APARECIDA CERPERO</t>
   </si>
   <si>
-    <t>(17)99642-5523</t>
-  </si>
-  <si>
     <t>LUCIANA APARECIDA DE OLIVEIRA</t>
   </si>
   <si>
     <t>LUIZ CARLOS PORTO BORGES</t>
   </si>
   <si>
-    <t>(17)99609-9449</t>
-  </si>
-  <si>
     <t>LUIZ GUSTAVO SANTOS MELO</t>
   </si>
   <si>
-    <t>(17)99716-5349</t>
-  </si>
-  <si>
     <t>MAGNA DE FÁTIMA NOGUEIRA TOLENTINO</t>
   </si>
   <si>
-    <t>(17)99643-0447</t>
-  </si>
-  <si>
     <t>MARA LÚCIA BOINA</t>
   </si>
   <si>
-    <t>(17)99701-4231</t>
-  </si>
-  <si>
     <t>MARCELO RICARDO LOPES ADAMI</t>
   </si>
   <si>
-    <t>(21)99816-4761</t>
-  </si>
-  <si>
     <t>MARCIA RIBEIRO XAVIER</t>
   </si>
   <si>
-    <t>(17)99777-3241</t>
-  </si>
-  <si>
     <t>MARIA APARECIDA DE JESUS SANTANA</t>
   </si>
   <si>
-    <t>(17)99628-7883</t>
-  </si>
-  <si>
     <t>MARIA APARECIDA FERREIRA VILAS BOAS</t>
   </si>
   <si>
-    <t>(17)99733-2758</t>
-  </si>
-  <si>
     <t>MARIA DO CARMO ABRANTES SANTOS</t>
   </si>
   <si>
-    <t>(17)99621-1208</t>
-  </si>
-  <si>
     <t>MARIA DO CARMO CANDIDA DE CAMPOS BARBOSA</t>
   </si>
   <si>
-    <t>(17)99771-1302</t>
-  </si>
-  <si>
     <t>MARIA EDUARDA BARROS DE PAULA</t>
   </si>
   <si>
-    <t>(17)99778-6889</t>
-  </si>
-  <si>
     <t>MARIA ELENIRA LOPES DOS SANTOS BELELI</t>
   </si>
   <si>
-    <t>(17)99718-5151</t>
-  </si>
-  <si>
     <t>MARIA FATIMA DE OLIVEIRA</t>
   </si>
   <si>
-    <t>(17)99654-3892</t>
-  </si>
-  <si>
     <t>MARIA LUCIA BORGES REZENDE</t>
   </si>
   <si>
-    <t>(17)99761-2334</t>
-  </si>
-  <si>
     <t>MARIELLY BORGES BARBOSA GAIOSO</t>
   </si>
   <si>
-    <t>(17)99137-9276</t>
-  </si>
-  <si>
     <t>MARILZA RUVIERO PERECIN SILVA</t>
   </si>
   <si>
-    <t>(17)99707-9978</t>
-  </si>
-  <si>
     <t>MARINALVA BARBOSA ALVES</t>
   </si>
   <si>
-    <t>(17)99638-5290</t>
-  </si>
-  <si>
     <t>MARISA ALVES RODRIGUES DA SILVA</t>
   </si>
   <si>
-    <t>(17)99745-4256</t>
-  </si>
-  <si>
     <t>MARIZA DE FATIMA BOTÉRI DE FREITAS</t>
   </si>
   <si>
-    <t>(17)99712-6383</t>
-  </si>
-  <si>
     <t>MARIZA DO CARMO GESSI ALVES</t>
   </si>
   <si>
-    <t>(17)99708-1576</t>
-  </si>
-  <si>
     <t>MARLI DE SOUZA ALVES FREITAS</t>
   </si>
   <si>
-    <t>(17)99779-7556</t>
-  </si>
-  <si>
     <t>MARLY PEREIRA TRINDADE</t>
   </si>
   <si>
-    <t>(17)99705-5362</t>
-  </si>
-  <si>
     <t>MATEUS FREITAS MACEDO</t>
   </si>
   <si>
-    <t>(17)98103-7781</t>
-  </si>
-  <si>
     <t>MICHELLI MARTINEZ FERREIRA FERNANDES</t>
   </si>
   <si>
-    <t>(17)99787-1093</t>
-  </si>
-  <si>
     <t>NILZA LOURENÇO</t>
   </si>
   <si>
-    <t>(17)99618-4540</t>
-  </si>
-  <si>
     <t>ONERIDES PEREIRA PERON</t>
   </si>
   <si>
-    <t>(17)99672-2444</t>
-  </si>
-  <si>
     <t>PATRICIA FERREIRA CARNEIRO CUNHA</t>
   </si>
   <si>
-    <t>(17)99777-8765</t>
-  </si>
-  <si>
     <t>PAULA BATISTA SANTANA</t>
   </si>
   <si>
-    <t>(17)99791-8841</t>
-  </si>
-  <si>
     <t>PAULO ROGERIO SANTAGNELO</t>
   </si>
   <si>
-    <t>(17)99200-1920</t>
-  </si>
-  <si>
     <t>POLIANA VIEIRA DE ANDRADE</t>
   </si>
   <si>
-    <t>(17)98835-8522</t>
-  </si>
-  <si>
     <t>PRISCILA LUIZ DOS SANTOS</t>
   </si>
   <si>
-    <t>(17)99747-7636</t>
-  </si>
-  <si>
     <t>PRISCILA OLIVEIRA DE SOUZA MAIA</t>
   </si>
   <si>
-    <t>(17)99713-7735</t>
-  </si>
-  <si>
     <t>QUEILA DA SILVA CHAVES ALMEIDA</t>
   </si>
   <si>
-    <t>(17)99657-6316</t>
-  </si>
-  <si>
     <t>RAFAEL NUNES DA COSTA</t>
   </si>
   <si>
-    <t>(17)98154-6901</t>
-  </si>
-  <si>
     <t>RAIANE CRISTINA DIAS DE JESUS</t>
   </si>
   <si>
-    <t>(17)99654-9488</t>
-  </si>
-  <si>
     <t>RAIMUNDO FERREIRA DE REZENDE NETO</t>
   </si>
   <si>
-    <t>(17)99615-8997</t>
-  </si>
-  <si>
     <t>RENAN LUCIANELI RIBEIRO</t>
   </si>
   <si>
-    <t>(17)99715-2401</t>
-  </si>
-  <si>
     <t>RENATA ALVES DE ARAUJO BERNARDES DA SILVA</t>
   </si>
   <si>
-    <t>(17)99643-4067</t>
-  </si>
-  <si>
     <t>RENATA GONÇALVES DOS SANTOS</t>
   </si>
   <si>
     <t>RENATO GONÇALVES BARBOSA</t>
   </si>
   <si>
-    <t>(17)99728-8838</t>
-  </si>
-  <si>
     <t>RONEIR OLIMPIO FERREIRA</t>
   </si>
   <si>
-    <t>(17)99615-0856</t>
-  </si>
-  <si>
     <t>ROSA HELENA DA SILVA</t>
   </si>
   <si>
-    <t>(17)99731-7467</t>
-  </si>
-  <si>
     <t>ROSANA MARA LOPES DA SILVEIRA CARROCINE</t>
   </si>
   <si>
-    <t>(17)997254241</t>
-  </si>
-  <si>
     <t>ROSANA MARIA DOS SANTOS</t>
   </si>
   <si>
     <t>ROSANA MOREIRA DE OLIVEIRA</t>
   </si>
   <si>
-    <t>(17)98800-4012</t>
-  </si>
-  <si>
     <t>ROSANA PEREIRA DA SILVA ALMEIDA</t>
   </si>
   <si>
-    <t>(17) 99680-1518</t>
-  </si>
-  <si>
     <t>ROSELENA APARECIDA GONÇALVES SIMEÃO</t>
   </si>
   <si>
-    <t>(17)99667-5835</t>
-  </si>
-  <si>
     <t>ROSEMEIRE BOINA DOS SANTOS BARBOSA</t>
   </si>
   <si>
     <t>ROSEMEIRE CAZAROTO BIZERRA DA SILVA</t>
   </si>
   <si>
-    <t>(17)99612-3008</t>
-  </si>
-  <si>
     <t>ROSIMAR DA SILVA OLIVEIRA</t>
   </si>
   <si>
@@ -908,9 +500,6 @@
     <t>ROSIVANE QUEIROZ DE OLIVEIRA</t>
   </si>
   <si>
-    <t>(17)99784-4565</t>
-  </si>
-  <si>
     <t>SANDRA DOS SANTOS  NOGUEIRA SANTOS</t>
   </si>
   <si>
@@ -920,57 +509,30 @@
     <t>SELMA LEMES DA SILVA BORGES</t>
   </si>
   <si>
-    <t>(17)99756-6310</t>
-  </si>
-  <si>
     <t>SELMA MARIA DE RESENDE BORGES</t>
   </si>
   <si>
-    <t>(17)99614-3681</t>
-  </si>
-  <si>
     <t>SILMARA CRISTINA GOUVEIA SALES COSTA</t>
   </si>
   <si>
-    <t>(17)99605-4512</t>
-  </si>
-  <si>
     <t>SILVANI SOUZA RIBEIRO MARTINITI</t>
   </si>
   <si>
-    <t>(17)99671-0705</t>
-  </si>
-  <si>
     <t>SILVANIA PERES DA SILVA SOUZA</t>
   </si>
   <si>
-    <t>(17)99616-2794</t>
-  </si>
-  <si>
     <t>SIMONE CARVALHO MOISES DA SILVA RIBEIRO</t>
   </si>
   <si>
-    <t>(17)99702-4907</t>
-  </si>
-  <si>
     <t>SONIA MARIA SILVA SILVERIO</t>
   </si>
   <si>
-    <t>(17)99773-0806</t>
-  </si>
-  <si>
     <t>SUE HELEN  CRISTINA GOMES DE OLIVEIRA</t>
   </si>
   <si>
-    <t>(17)99673-6873</t>
-  </si>
-  <si>
     <t>SUELI IZABEL BUÊNO SILVA</t>
   </si>
   <si>
-    <t>(17) 99746-3612</t>
-  </si>
-  <si>
     <t>SUMARIA DIOGO JANUARIO RUVIERI</t>
   </si>
   <si>
@@ -980,64 +542,43 @@
     <t>TATIANA FERNANDES BARBOSA</t>
   </si>
   <si>
-    <t>(17)99654-6446</t>
-  </si>
-  <si>
     <t>TATIANE RIBEIRO COSTA DA SILVA</t>
   </si>
   <si>
-    <t>(17)99734-8688</t>
-  </si>
-  <si>
     <t>TELMA DAIANA MOREIRA</t>
   </si>
   <si>
-    <t>(17)99219-4306</t>
-  </si>
-  <si>
     <t>THAIS REGINA FERREIRA LACERDA FREITAS</t>
   </si>
   <si>
-    <t>(17)99745-0075</t>
-  </si>
-  <si>
     <t>TIAGO GIACOMINI DOS SANTOS</t>
   </si>
   <si>
-    <t>(17)99714-5621</t>
-  </si>
-  <si>
     <t>VALDIMAR SERIGUSSI</t>
   </si>
   <si>
-    <t>(17)99735-4307</t>
-  </si>
-  <si>
     <t>VERA LUCIA DA SILVA MONTALVÃO</t>
   </si>
   <si>
-    <t>(17)99641-5504</t>
-  </si>
-  <si>
     <t>VICTOR FELIPE DE ALCANTARA CARDOSO</t>
   </si>
   <si>
-    <t>(17)99629-3156</t>
-  </si>
-  <si>
     <t>Numero de WhatsApp</t>
   </si>
   <si>
     <t>Data de Nascimento</t>
+  </si>
+  <si>
+    <t>CHARLIANETRAJANO DA SILVA</t>
+  </si>
+  <si>
+    <t>ISADORAFERNANDESDESOUZANOGUEIRA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1096,21 +637,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1415,1923 +959,1998 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C180"/>
+  <dimension ref="A1:D197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="57.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="27.5" style="12" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>336</v>
+      <c r="B1" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>29298</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
+      <c r="C2" s="10">
+        <v>5517997797263</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
         <v>28852</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
+      <c r="C3" s="10">
+        <v>5517991062614</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
         <v>27239</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
+      <c r="C4" s="10">
+        <v>5517997439888</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
         <v>27554</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
+      <c r="C5" s="10">
+        <v>5517996234118</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
         <v>32927</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
+      <c r="C6" s="10">
+        <v>5517996490284</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
         <v>31609</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
+      <c r="C7" s="10">
+        <v>5517997274530</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
         <v>33114</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
+      <c r="C8" s="10">
+        <v>5535991086432</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
         <v>27697</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
+      <c r="C9" s="10">
+        <v>5517996056571</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
         <v>24096</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
+      <c r="C10" s="10">
+        <v>5517997589607</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
         <v>25554</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
+      <c r="C11" s="10">
+        <v>5517996094869</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
         <v>26080</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>22</v>
+      <c r="C12" s="10">
+        <v>5517996098482</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6">
         <v>38083</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
+      <c r="C13" s="10">
+        <v>5517997461763</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6">
         <v>33591</v>
       </c>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6">
         <v>31555</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>27</v>
+      <c r="C15" s="10">
+        <v>5517981241202</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6">
         <v>26930</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>29</v>
+      <c r="C16" s="10">
+        <v>5517997384420</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6">
         <v>28043</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>31</v>
+      <c r="C17" s="10">
+        <v>5517997052748</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6">
         <v>29369</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>33</v>
+      <c r="C18" s="10">
+        <v>5517997449229</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6">
         <v>31527</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>35</v>
+      <c r="C19" s="10">
+        <v>5517996421772</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6">
         <v>36899</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>37</v>
+      <c r="C20" s="10">
+        <v>5517996839806</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6">
         <v>28148</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>39</v>
+      <c r="C21" s="10">
+        <v>5517997765210</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6">
         <v>23173</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>41</v>
+      <c r="C22" s="10">
+        <v>5517997221206</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6">
         <v>33891</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>43</v>
+      <c r="C23" s="10">
+        <v>5517997068426</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6">
         <v>37305</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>45</v>
+      <c r="C24" s="10">
+        <v>5517997653249</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6">
         <v>38223</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>47</v>
+      <c r="C25" s="10">
+        <v>5517996036828</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6">
         <v>24541</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>49</v>
+      <c r="C26" s="10">
+        <v>5517997039096</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6">
         <v>32911</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>51</v>
+      <c r="C27" s="10">
+        <v>5517996189490</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6">
         <v>34443</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>53</v>
+      <c r="C28" s="10">
+        <v>5516992230484</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6">
         <v>28632</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>55</v>
+      <c r="C29" s="10">
+        <v>5517996046356</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="7">
+        <v>180</v>
+      </c>
+      <c r="B30" s="6">
         <v>32016</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>57</v>
+      <c r="C30" s="10">
+        <v>5517997659819</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="7">
+        <v>29</v>
+      </c>
+      <c r="B31" s="6">
         <v>30798</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>59</v>
+      <c r="C31" s="10">
+        <v>5517996521755</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="7">
+        <v>30</v>
+      </c>
+      <c r="B32" s="6">
         <v>28249</v>
       </c>
+      <c r="C32" s="11"/>
     </row>
     <row r="33" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="7">
+        <v>31</v>
+      </c>
+      <c r="B33" s="6">
         <v>29299</v>
       </c>
+      <c r="C33" s="11"/>
     </row>
     <row r="34" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="7">
+        <v>32</v>
+      </c>
+      <c r="B34" s="6">
         <v>31144</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>63</v>
+      <c r="C34" s="10">
+        <v>5517997810885</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="7">
+        <v>33</v>
+      </c>
+      <c r="B35" s="6">
         <v>31846</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>65</v>
+      <c r="C35" s="10">
+        <v>5517996231305</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="7">
+        <v>34</v>
+      </c>
+      <c r="B36" s="6">
         <v>31405</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>67</v>
+      <c r="C36" s="10">
+        <v>5517997013504</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="7">
+        <v>35</v>
+      </c>
+      <c r="B37" s="6">
         <v>27595</v>
       </c>
+      <c r="C37" s="11"/>
     </row>
     <row r="38" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" s="7">
+        <v>36</v>
+      </c>
+      <c r="B38" s="6">
         <v>26309</v>
       </c>
+      <c r="C38" s="11"/>
     </row>
     <row r="39" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="2" t="s">
-        <v>71</v>
+        <v>37</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="10">
+        <v>5517996049948</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B40" s="7">
+        <v>38</v>
+      </c>
+      <c r="B40" s="6">
         <v>31748</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>73</v>
+      <c r="C40" s="10">
+        <v>5517996365590</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="7">
+        <v>39</v>
+      </c>
+      <c r="B41" s="6">
         <v>32861</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>75</v>
+      <c r="C41" s="10">
+        <v>5517982049285</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B42" s="7">
+        <v>40</v>
+      </c>
+      <c r="B42" s="6">
         <v>36101</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>77</v>
+      <c r="C42" s="10">
+        <v>5517996052658</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" s="7">
+        <v>41</v>
+      </c>
+      <c r="B43" s="6">
         <v>32875</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>79</v>
+      <c r="C43" s="10">
+        <v>5517996721645</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44" s="7">
+        <v>42</v>
+      </c>
+      <c r="B44" s="6">
         <v>35511</v>
       </c>
+      <c r="C44" s="11"/>
     </row>
     <row r="45" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B45" s="7">
+        <v>43</v>
+      </c>
+      <c r="B45" s="6">
         <v>30617</v>
       </c>
+      <c r="C45" s="11"/>
     </row>
     <row r="46" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B46" s="7">
+        <v>44</v>
+      </c>
+      <c r="B46" s="6">
         <v>38744</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>83</v>
+      <c r="C46" s="10">
+        <v>5517988219342</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47" s="7">
+        <v>45</v>
+      </c>
+      <c r="B47" s="6">
         <v>29152</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>85</v>
+      <c r="C47" s="10">
+        <v>5517997462529</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B48" s="7">
+        <v>46</v>
+      </c>
+      <c r="B48" s="6">
         <v>28816</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>87</v>
+      <c r="C48" s="10">
+        <v>5517996299752</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B49" s="7">
+        <v>47</v>
+      </c>
+      <c r="B49" s="6">
         <v>29473</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>89</v>
+      <c r="C49" s="10">
+        <v>5517996285637</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B50" s="7">
+        <v>48</v>
+      </c>
+      <c r="B50" s="6">
         <v>25138</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>91</v>
+      <c r="C50" s="10">
+        <v>5517997131613</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B51" s="7">
+        <v>49</v>
+      </c>
+      <c r="B51" s="6">
         <v>24571</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>93</v>
+      <c r="C51" s="10">
+        <v>5517996359737</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B52" s="7">
+        <v>50</v>
+      </c>
+      <c r="B52" s="6">
         <v>27847</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>95</v>
+      <c r="C52" s="10">
+        <v>5517991932364</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B53" s="7">
+        <v>51</v>
+      </c>
+      <c r="B53" s="6">
         <v>25739</v>
       </c>
+      <c r="C53" s="11"/>
     </row>
     <row r="54" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B54" s="7">
+        <v>52</v>
+      </c>
+      <c r="B54" s="6">
         <v>27789</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>98</v>
+      <c r="C54" s="10">
+        <v>5517997740558</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B55" s="7">
+        <v>53</v>
+      </c>
+      <c r="B55" s="6">
         <v>30313</v>
       </c>
+      <c r="C55" s="11"/>
     </row>
     <row r="56" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B56" s="7">
+        <v>54</v>
+      </c>
+      <c r="B56" s="6">
         <v>29761</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>101</v>
+      <c r="C56" s="10">
+        <v>5517988071494</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B57" s="7">
+        <v>55</v>
+      </c>
+      <c r="B57" s="6">
         <v>27903</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>103</v>
+      <c r="C57" s="10">
+        <v>5517996059763</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B58" s="7">
+        <v>56</v>
+      </c>
+      <c r="B58" s="6">
         <v>26366</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>105</v>
+      <c r="C58" s="10">
+        <v>5517997850125</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B59" s="7">
+        <v>57</v>
+      </c>
+      <c r="B59" s="6">
         <v>31178</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>107</v>
+      <c r="C59" s="10">
+        <v>5517997747679</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B60" s="7">
+        <v>58</v>
+      </c>
+      <c r="B60" s="6">
         <v>29446</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>109</v>
+      <c r="C60" s="10">
+        <v>5517996438516</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B61" s="7">
+        <v>59</v>
+      </c>
+      <c r="B61" s="6">
         <v>34091</v>
       </c>
+      <c r="C61" s="11"/>
     </row>
     <row r="62" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B62" s="7">
+        <v>60</v>
+      </c>
+      <c r="B62" s="6">
         <v>30059</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>112</v>
+      <c r="C62" s="10">
+        <v>5517997943377</v>
       </c>
     </row>
     <row r="63" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B63" s="7">
+        <v>61</v>
+      </c>
+      <c r="B63" s="6">
         <v>27355</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>114</v>
+      <c r="C63" s="10">
+        <v>5517997773066</v>
       </c>
     </row>
     <row r="64" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B64" s="7">
+        <v>62</v>
+      </c>
+      <c r="B64" s="6">
         <v>34110</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>116</v>
+      <c r="C64" s="10">
+        <v>5517997299974</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B65" s="7">
+        <v>63</v>
+      </c>
+      <c r="B65" s="6">
         <v>35874</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>118</v>
+      <c r="C65" s="10">
+        <v>5517996247804</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B66" s="7">
+        <v>64</v>
+      </c>
+      <c r="B66" s="6">
         <v>34563</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>120</v>
+      <c r="C66" s="10">
+        <v>5517988462178</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B67" s="7">
+        <v>65</v>
+      </c>
+      <c r="B67" s="6">
         <v>34590</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>122</v>
+      <c r="C67" s="10">
+        <v>5517996281566</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B68" s="7">
+        <v>66</v>
+      </c>
+      <c r="B68" s="6">
         <v>30714</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>124</v>
+      <c r="C68" s="10">
+        <v>5517997746459</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B69" s="7">
+        <v>67</v>
+      </c>
+      <c r="B69" s="6">
         <v>35899</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>126</v>
+      <c r="C69" s="10">
+        <v>5517996248474</v>
       </c>
     </row>
     <row r="70" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B70" s="7">
+        <v>68</v>
+      </c>
+      <c r="B70" s="6">
         <v>35338</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>128</v>
+      <c r="C70" s="10">
+        <v>5517997880334</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B71" s="7">
+        <v>69</v>
+      </c>
+      <c r="B71" s="6">
         <v>30791</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>130</v>
+      <c r="C71" s="10">
+        <v>5517991430568</v>
       </c>
     </row>
     <row r="72" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B72" s="7">
+        <v>70</v>
+      </c>
+      <c r="B72" s="6">
         <v>27641</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>132</v>
+      <c r="C72" s="10">
+        <v>5517997346933</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B73" s="7">
+        <v>71</v>
+      </c>
+      <c r="B73" s="6">
         <v>30593</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>134</v>
+      <c r="C73" s="10">
+        <v>5517981230472</v>
       </c>
     </row>
     <row r="74" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B74" s="7">
+        <v>72</v>
+      </c>
+      <c r="B74" s="6">
         <v>27614</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>136</v>
+      <c r="C74" s="10">
+        <v>5517997440286</v>
       </c>
     </row>
     <row r="75" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B75" s="7">
+        <v>73</v>
+      </c>
+      <c r="B75" s="6">
         <v>27654</v>
       </c>
+      <c r="C75" s="11"/>
     </row>
     <row r="76" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B76" s="7">
+        <v>74</v>
+      </c>
+      <c r="B76" s="6">
         <v>26859</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>139</v>
+      <c r="C76" s="10">
+        <v>5517996094605</v>
       </c>
     </row>
     <row r="77" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B77" s="7">
+        <v>181</v>
+      </c>
+      <c r="B77" s="6">
         <v>36465</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>141</v>
+      <c r="C77" s="10">
+        <v>5517996518367</v>
       </c>
     </row>
     <row r="78" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B78" s="7">
+        <v>75</v>
+      </c>
+      <c r="B78" s="6">
         <v>31272</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>143</v>
+      <c r="C78" s="10">
+        <v>5517997222594</v>
       </c>
     </row>
     <row r="79" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B79" s="7">
+        <v>76</v>
+      </c>
+      <c r="B79" s="6">
         <v>30175</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>145</v>
+      <c r="C79" s="10">
+        <v>5517997934994</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B80" s="7">
+        <v>77</v>
+      </c>
+      <c r="B80" s="6">
         <v>31078</v>
       </c>
+      <c r="C80" s="11"/>
     </row>
     <row r="81" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B81" s="7">
+        <v>78</v>
+      </c>
+      <c r="B81" s="6">
         <v>27952</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>148</v>
+      <c r="C81" s="10">
+        <v>5517997535959</v>
       </c>
     </row>
     <row r="82" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B82" s="7">
+        <v>79</v>
+      </c>
+      <c r="B82" s="6">
         <v>33371</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>150</v>
+      <c r="C82" s="10">
+        <v>5517997446059</v>
       </c>
     </row>
     <row r="83" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B83" s="7">
+        <v>80</v>
+      </c>
+      <c r="B83" s="6">
         <v>37717</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>152</v>
+      <c r="C83" s="10">
+        <v>5517996358820</v>
       </c>
     </row>
     <row r="84" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B84" s="7">
+        <v>81</v>
+      </c>
+      <c r="B84" s="6">
         <v>28047</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>154</v>
+      <c r="C84" s="10">
+        <v>5517981742910</v>
       </c>
     </row>
     <row r="85" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B85" s="7">
+        <v>82</v>
+      </c>
+      <c r="B85" s="6">
         <v>32546</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>156</v>
+      <c r="C85" s="10">
+        <v>5517997785481</v>
       </c>
     </row>
     <row r="86" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B86" s="7">
+        <v>83</v>
+      </c>
+      <c r="B86" s="6">
         <v>28331</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>158</v>
+      <c r="C86" s="10">
+        <v>5511952483279</v>
       </c>
     </row>
     <row r="87" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B87" s="7">
+        <v>84</v>
+      </c>
+      <c r="B87" s="6">
         <v>38134</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>160</v>
+      <c r="C87" s="10">
+        <v>5517997519409</v>
       </c>
     </row>
     <row r="88" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B88" s="7">
+        <v>85</v>
+      </c>
+      <c r="B88" s="6">
         <v>27432</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>162</v>
+      <c r="C88" s="10">
+        <v>5517997428868</v>
       </c>
     </row>
     <row r="89" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B89" s="7">
+        <v>86</v>
+      </c>
+      <c r="B89" s="6">
         <v>38000</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>164</v>
+      <c r="C89" s="10">
+        <v>5517996456543</v>
       </c>
     </row>
     <row r="90" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B90" s="7">
+        <v>87</v>
+      </c>
+      <c r="B90" s="6">
         <v>33329</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>166</v>
+      <c r="C90" s="10">
+        <v>5517997478732</v>
       </c>
     </row>
     <row r="91" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B91" s="7">
+        <v>88</v>
+      </c>
+      <c r="B91" s="6">
         <v>31494</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>168</v>
+      <c r="C91" s="10">
+        <v>5517996416873</v>
       </c>
     </row>
     <row r="92" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B92" s="7">
+        <v>89</v>
+      </c>
+      <c r="B92" s="6">
         <v>30909</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>170</v>
+      <c r="C92" s="10">
+        <v>5517997613305</v>
       </c>
     </row>
     <row r="93" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B93" s="7">
+        <v>90</v>
+      </c>
+      <c r="B93" s="6">
         <v>30902</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>172</v>
+      <c r="C93" s="10">
+        <v>5517996012966</v>
       </c>
     </row>
     <row r="94" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B94" s="7">
+        <v>91</v>
+      </c>
+      <c r="B94" s="6">
         <v>32270</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>174</v>
+      <c r="C94" s="10">
+        <v>5517996593419</v>
       </c>
     </row>
     <row r="95" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B95" s="7">
+        <v>92</v>
+      </c>
+      <c r="B95" s="6">
         <v>32390</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>176</v>
+      <c r="C95" s="10">
+        <v>5517997447844</v>
       </c>
     </row>
     <row r="96" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B96" s="7">
+        <v>93</v>
+      </c>
+      <c r="B96" s="6">
         <v>27176</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>178</v>
+      <c r="C96" s="10">
+        <v>5517997522663</v>
       </c>
     </row>
     <row r="97" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B97" s="7">
+        <v>94</v>
+      </c>
+      <c r="B97" s="6">
         <v>27611</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>180</v>
+      <c r="C97" s="10">
+        <v>5517996215842</v>
       </c>
     </row>
     <row r="98" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B98" s="7">
+        <v>95</v>
+      </c>
+      <c r="B98" s="6">
         <v>38342</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>182</v>
+      <c r="C98" s="10">
+        <v>5517996259121</v>
       </c>
     </row>
     <row r="99" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B99" s="7">
+        <v>96</v>
+      </c>
+      <c r="B99" s="6">
         <v>28745</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>184</v>
+      <c r="C99" s="10">
+        <v>5517997544759</v>
       </c>
     </row>
     <row r="100" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B100" s="7">
+        <v>97</v>
+      </c>
+      <c r="B100" s="6">
         <v>30188</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>186</v>
+      <c r="C100" s="10">
+        <v>5517997910748</v>
       </c>
     </row>
     <row r="101" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B101" s="7">
+        <v>98</v>
+      </c>
+      <c r="B101" s="6">
         <v>26951</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>188</v>
+      <c r="C101" s="10">
+        <v>5517997558705</v>
       </c>
     </row>
     <row r="102" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B102" s="7">
+        <v>99</v>
+      </c>
+      <c r="B102" s="6">
         <v>25042</v>
       </c>
+      <c r="C102" s="11"/>
     </row>
     <row r="103" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B103" s="7">
+        <v>100</v>
+      </c>
+      <c r="B103" s="6">
         <v>33809</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>191</v>
+      <c r="C103" s="10">
+        <v>5517997643279</v>
       </c>
     </row>
     <row r="104" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B104" s="7">
+        <v>101</v>
+      </c>
+      <c r="B104" s="6">
         <v>30146</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>193</v>
+      <c r="C104" s="10">
+        <v>5517982118909</v>
       </c>
     </row>
     <row r="105" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B105" s="7">
+        <v>102</v>
+      </c>
+      <c r="B105" s="6">
         <v>38743</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>195</v>
+      <c r="C105" s="10">
+        <v>5517997145151</v>
       </c>
     </row>
     <row r="106" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B106" s="7">
+        <v>103</v>
+      </c>
+      <c r="B106" s="6">
         <v>28722</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>197</v>
+      <c r="C106" s="10">
+        <v>5517996425523</v>
       </c>
     </row>
     <row r="107" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B107" s="7">
+        <v>104</v>
+      </c>
+      <c r="B107" s="6">
         <v>27403</v>
       </c>
+      <c r="C107" s="11"/>
     </row>
     <row r="108" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B108" s="7">
+        <v>105</v>
+      </c>
+      <c r="B108" s="6">
         <v>34316</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>200</v>
+      <c r="C108" s="10">
+        <v>5517996099449</v>
       </c>
     </row>
     <row r="109" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B109" s="8"/>
-      <c r="C109" s="2" t="s">
-        <v>202</v>
+        <v>106</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c r="C109" s="10">
+        <v>5517997165349</v>
       </c>
     </row>
     <row r="110" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B110" s="7">
+        <v>107</v>
+      </c>
+      <c r="B110" s="6">
         <v>25312</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>204</v>
+      <c r="C110" s="10">
+        <v>5517996430447</v>
       </c>
     </row>
     <row r="111" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B111" s="7">
+        <v>108</v>
+      </c>
+      <c r="B111" s="6">
         <v>33031</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>206</v>
+      <c r="C111" s="10">
+        <v>5517997014231</v>
       </c>
     </row>
     <row r="112" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B112" s="7">
+        <v>109</v>
+      </c>
+      <c r="B112" s="6">
         <v>43381</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>208</v>
+      <c r="C112" s="10">
+        <v>5521998164761</v>
       </c>
     </row>
     <row r="113" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B113" s="7">
+        <v>110</v>
+      </c>
+      <c r="B113" s="6">
         <v>27588</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>210</v>
+      <c r="C113" s="10">
+        <v>5517997773241</v>
       </c>
     </row>
     <row r="114" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B114" s="7">
+        <v>111</v>
+      </c>
+      <c r="B114" s="6">
         <v>32043</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>212</v>
+      <c r="C114" s="10">
+        <v>5517996287883</v>
       </c>
     </row>
     <row r="115" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B115" s="7">
+        <v>112</v>
+      </c>
+      <c r="B115" s="6">
         <v>26454</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>214</v>
+      <c r="C115" s="10">
+        <v>5517997332758</v>
       </c>
     </row>
     <row r="116" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B116" s="7">
+        <v>113</v>
+      </c>
+      <c r="B116" s="6">
         <v>30031</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>216</v>
+      <c r="C116" s="10">
+        <v>5517996211208</v>
       </c>
     </row>
     <row r="117" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B117" s="7">
+        <v>114</v>
+      </c>
+      <c r="B117" s="6">
         <v>24370</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>218</v>
+      <c r="C117" s="10">
+        <v>5517997711302</v>
       </c>
     </row>
     <row r="118" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B118" s="7">
+        <v>115</v>
+      </c>
+      <c r="B118" s="6">
         <v>38142</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>220</v>
+      <c r="C118" s="10">
+        <v>5517997786889</v>
       </c>
     </row>
     <row r="119" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B119" s="7">
+        <v>116</v>
+      </c>
+      <c r="B119" s="6">
         <v>27652</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>222</v>
+      <c r="C119" s="10">
+        <v>5517997185151</v>
       </c>
     </row>
     <row r="120" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B120" s="7">
+        <v>117</v>
+      </c>
+      <c r="B120" s="6">
         <v>23162</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>224</v>
+      <c r="C120" s="10">
+        <v>5517996543892</v>
       </c>
     </row>
     <row r="121" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B121" s="7">
+        <v>118</v>
+      </c>
+      <c r="B121" s="6">
         <v>32982</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>226</v>
+      <c r="C121" s="10">
+        <v>5517997612334</v>
       </c>
     </row>
     <row r="122" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B122" s="7">
+        <v>119</v>
+      </c>
+      <c r="B122" s="6">
         <v>34146</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>228</v>
+      <c r="C122" s="10">
+        <v>5517991379276</v>
       </c>
     </row>
     <row r="123" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B123" s="7">
+        <v>120</v>
+      </c>
+      <c r="B123" s="6">
         <v>26606</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>230</v>
+      <c r="C123" s="10">
+        <v>5517997079978</v>
       </c>
     </row>
     <row r="124" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B124" s="7">
+        <v>121</v>
+      </c>
+      <c r="B124" s="6">
         <v>31533</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>232</v>
+      <c r="C124" s="10">
+        <v>5517996385290</v>
       </c>
     </row>
     <row r="125" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B125" s="7">
+        <v>122</v>
+      </c>
+      <c r="B125" s="6">
         <v>26293</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>234</v>
+      <c r="C125" s="10">
+        <v>5517997454256</v>
       </c>
     </row>
     <row r="126" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B126" s="7">
+        <v>123</v>
+      </c>
+      <c r="B126" s="6">
         <v>27539</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>236</v>
+      <c r="C126" s="10">
+        <v>5517997126383</v>
       </c>
     </row>
     <row r="127" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B127" s="7">
+        <v>124</v>
+      </c>
+      <c r="B127" s="6">
         <v>23580</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>238</v>
+      <c r="C127" s="10">
+        <v>5517997081576</v>
       </c>
     </row>
     <row r="128" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B128" s="7">
+        <v>125</v>
+      </c>
+      <c r="B128" s="6">
         <v>28298</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>240</v>
+      <c r="C128" s="10">
+        <v>5517997797556</v>
       </c>
     </row>
     <row r="129" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B129" s="7">
+        <v>126</v>
+      </c>
+      <c r="B129" s="6">
         <v>29189</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>242</v>
+      <c r="C129" s="10">
+        <v>5517997055362</v>
       </c>
     </row>
     <row r="130" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B130" s="7">
+        <v>127</v>
+      </c>
+      <c r="B130" s="6">
         <v>34933</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>244</v>
+      <c r="C130" s="10">
+        <v>5517981037781</v>
       </c>
     </row>
     <row r="131" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B131" s="7">
+        <v>128</v>
+      </c>
+      <c r="B131" s="6">
         <v>31758</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>246</v>
+      <c r="C131" s="10">
+        <v>5517997871093</v>
       </c>
     </row>
     <row r="132" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B132" s="7">
+        <v>129</v>
+      </c>
+      <c r="B132" s="6">
         <v>20956</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>248</v>
+      <c r="C132" s="10">
+        <v>5517996184540</v>
       </c>
     </row>
     <row r="133" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B133" s="7">
+        <v>130</v>
+      </c>
+      <c r="B133" s="6">
         <v>24852</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>250</v>
+      <c r="C133" s="10">
+        <v>5517996722444</v>
       </c>
     </row>
     <row r="134" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B134" s="7">
+        <v>131</v>
+      </c>
+      <c r="B134" s="6">
         <v>26924</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>252</v>
+      <c r="C134" s="10">
+        <v>5517997778765</v>
       </c>
     </row>
     <row r="135" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B135" s="7">
+        <v>132</v>
+      </c>
+      <c r="B135" s="6">
         <v>31657</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>254</v>
+      <c r="C135" s="10">
+        <v>5517997918841</v>
       </c>
     </row>
     <row r="136" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B136" s="7">
+        <v>133</v>
+      </c>
+      <c r="B136" s="6">
         <v>29930</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>256</v>
+      <c r="C136" s="10">
+        <v>5517992001920</v>
       </c>
     </row>
     <row r="137" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B137" s="7">
+        <v>134</v>
+      </c>
+      <c r="B137" s="6">
         <v>33946</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>258</v>
+      <c r="C137" s="10">
+        <v>5517988358522</v>
       </c>
     </row>
     <row r="138" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B138" s="7">
+        <v>135</v>
+      </c>
+      <c r="B138" s="6">
         <v>31472</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>260</v>
+      <c r="C138" s="10">
+        <v>5517997477636</v>
       </c>
     </row>
     <row r="139" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B139" s="7">
+        <v>136</v>
+      </c>
+      <c r="B139" s="6">
         <v>31144</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>262</v>
+      <c r="C139" s="10">
+        <v>5517997137735</v>
       </c>
     </row>
     <row r="140" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B140" s="7">
+        <v>137</v>
+      </c>
+      <c r="B140" s="6">
         <v>31638</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>264</v>
+      <c r="C140" s="10">
+        <v>5517996576316</v>
       </c>
     </row>
     <row r="141" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B141" s="7">
+        <v>138</v>
+      </c>
+      <c r="B141" s="6">
         <v>33805</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>266</v>
+      <c r="C141" s="10">
+        <v>5517981546901</v>
       </c>
     </row>
     <row r="142" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B142" s="7">
+        <v>139</v>
+      </c>
+      <c r="B142" s="6">
         <v>41404</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>268</v>
+      <c r="C142" s="10">
+        <v>5517996549488</v>
       </c>
     </row>
     <row r="143" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B143" s="7">
+        <v>140</v>
+      </c>
+      <c r="B143" s="6">
         <v>24659</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>270</v>
+      <c r="C143" s="10">
+        <v>5517996158997</v>
       </c>
     </row>
     <row r="144" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B144" s="7">
+        <v>141</v>
+      </c>
+      <c r="B144" s="6">
         <v>34358</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>272</v>
+      <c r="C144" s="10">
+        <v>5517997152401</v>
       </c>
     </row>
     <row r="145" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B145" s="7">
+        <v>142</v>
+      </c>
+      <c r="B145" s="6">
         <v>29106</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>274</v>
+      <c r="C145" s="10">
+        <v>5517996434067</v>
       </c>
     </row>
     <row r="146" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B146" s="7">
+        <v>143</v>
+      </c>
+      <c r="B146" s="6">
         <v>32303</v>
       </c>
+      <c r="C146" s="11"/>
     </row>
     <row r="147" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B147" s="7">
+        <v>144</v>
+      </c>
+      <c r="B147" s="6">
         <v>24443</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>277</v>
+      <c r="C147" s="10">
+        <v>5517997288838</v>
       </c>
     </row>
     <row r="148" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B148" s="7">
+        <v>145</v>
+      </c>
+      <c r="B148" s="6">
         <v>21920</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>279</v>
+      <c r="C148" s="10">
+        <v>5517996150856</v>
       </c>
     </row>
     <row r="149" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B149" s="7">
+        <v>146</v>
+      </c>
+      <c r="B149" s="6">
         <v>23908</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>281</v>
+      <c r="C149" s="10">
+        <v>5517997317467</v>
       </c>
     </row>
     <row r="150" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B150" s="7">
+        <v>147</v>
+      </c>
+      <c r="B150" s="6">
         <v>26708</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>283</v>
+      <c r="C150" s="10">
+        <v>5517997254241</v>
       </c>
     </row>
     <row r="151" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B151" s="7">
+        <v>148</v>
+      </c>
+      <c r="B151" s="6">
         <v>24783</v>
       </c>
+      <c r="C151" s="11"/>
     </row>
     <row r="152" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B152" s="7">
+        <v>149</v>
+      </c>
+      <c r="B152" s="6">
         <v>31481</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>286</v>
+      <c r="C152" s="10">
+        <v>5517988004012</v>
       </c>
     </row>
     <row r="153" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B153" s="7">
+        <v>150</v>
+      </c>
+      <c r="B153" s="6">
         <v>28951</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>288</v>
+      <c r="C153" s="10">
+        <v>5517996801518</v>
       </c>
     </row>
     <row r="154" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B154" s="7">
+        <v>151</v>
+      </c>
+      <c r="B154" s="6">
         <v>31787</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>290</v>
+      <c r="C154" s="10">
+        <v>5517996675835</v>
       </c>
     </row>
     <row r="155" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B155" s="7">
+        <v>152</v>
+      </c>
+      <c r="B155" s="6">
         <v>23883</v>
       </c>
+      <c r="C155" s="11"/>
     </row>
     <row r="156" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B156" s="7">
+        <v>153</v>
+      </c>
+      <c r="B156" s="6">
         <v>28360</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>293</v>
+      <c r="C156" s="10">
+        <v>5517996123008</v>
       </c>
     </row>
     <row r="157" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B157" s="7">
+        <v>154</v>
+      </c>
+      <c r="B157" s="6">
         <v>30170</v>
       </c>
+      <c r="C157" s="11"/>
     </row>
     <row r="158" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B158" s="7">
+        <v>155</v>
+      </c>
+      <c r="B158" s="6">
         <v>27533</v>
       </c>
+      <c r="C158" s="11"/>
     </row>
     <row r="159" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B159" s="7">
+        <v>156</v>
+      </c>
+      <c r="B159" s="6">
         <v>25153</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>297</v>
+      <c r="C159" s="10">
+        <v>5517997844565</v>
       </c>
     </row>
     <row r="160" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B160" s="7">
+        <v>157</v>
+      </c>
+      <c r="B160" s="6">
         <v>25565</v>
       </c>
+      <c r="C160" s="11"/>
     </row>
     <row r="161" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B161" s="7">
+        <v>158</v>
+      </c>
+      <c r="B161" s="6">
         <v>27773</v>
       </c>
+      <c r="C161" s="11"/>
     </row>
     <row r="162" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B162" s="7">
+        <v>159</v>
+      </c>
+      <c r="B162" s="6">
         <v>27823</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>301</v>
+      <c r="C162" s="10">
+        <v>5517997566310</v>
       </c>
     </row>
     <row r="163" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B163" s="8"/>
-      <c r="C163" s="2" t="s">
-        <v>303</v>
+        <v>160</v>
+      </c>
+      <c r="B163" s="7"/>
+      <c r="C163" s="10">
+        <v>5517996143681</v>
       </c>
     </row>
     <row r="164" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B164" s="7">
+        <v>161</v>
+      </c>
+      <c r="B164" s="6">
         <v>33374</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>305</v>
+      <c r="C164" s="10">
+        <v>5517996054512</v>
       </c>
     </row>
     <row r="165" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B165" s="7">
+        <v>162</v>
+      </c>
+      <c r="B165" s="6">
         <v>27179</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>307</v>
+      <c r="C165" s="10">
+        <v>5517996710705</v>
       </c>
     </row>
     <row r="166" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B166" s="7">
+        <v>163</v>
+      </c>
+      <c r="B166" s="6">
         <v>23623</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>309</v>
+      <c r="C166" s="10">
+        <v>5517996162794</v>
       </c>
     </row>
     <row r="167" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B167" s="7">
+        <v>164</v>
+      </c>
+      <c r="B167" s="6">
         <v>26944</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>311</v>
+      <c r="C167" s="10">
+        <v>5517997024907</v>
       </c>
     </row>
     <row r="168" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B168" s="7">
+        <v>165</v>
+      </c>
+      <c r="B168" s="6">
         <v>22423</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>313</v>
+      <c r="C168" s="10">
+        <v>5517997730806</v>
       </c>
     </row>
     <row r="169" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B169" s="7">
+        <v>166</v>
+      </c>
+      <c r="B169" s="6">
         <v>32167</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>315</v>
+      <c r="C169" s="10">
+        <v>5517996736873</v>
       </c>
     </row>
     <row r="170" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B170" s="7">
+        <v>167</v>
+      </c>
+      <c r="B170" s="6">
         <v>25444</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>317</v>
+      <c r="C170" s="10">
+        <v>5517997463612</v>
       </c>
     </row>
     <row r="171" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B171" s="7">
+        <v>168</v>
+      </c>
+      <c r="B171" s="6">
         <v>23714</v>
       </c>
+      <c r="C171" s="11"/>
     </row>
     <row r="172" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B172" s="7">
+        <v>169</v>
+      </c>
+      <c r="B172" s="6">
         <v>33671</v>
       </c>
+      <c r="C172" s="11"/>
     </row>
     <row r="173" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B173" s="7">
+        <v>170</v>
+      </c>
+      <c r="B173" s="6">
         <v>29943</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>321</v>
+      <c r="C173" s="10">
+        <v>5517996546446</v>
       </c>
     </row>
     <row r="174" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B174" s="7">
+        <v>171</v>
+      </c>
+      <c r="B174" s="6">
         <v>31322</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>323</v>
+      <c r="C174" s="10">
+        <v>5517997348688</v>
       </c>
     </row>
     <row r="175" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B175" s="7">
+        <v>172</v>
+      </c>
+      <c r="B175" s="6">
         <v>30242</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>325</v>
+      <c r="C175" s="10">
+        <v>5517992194306</v>
       </c>
     </row>
     <row r="176" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B176" s="7">
+        <v>173</v>
+      </c>
+      <c r="B176" s="6">
         <v>31798</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C176" s="10">
+        <v>5517997450075</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B177" s="7">
+        <v>174</v>
+      </c>
+      <c r="B177" s="6">
         <v>31822</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C177" s="10">
+        <v>5517997145621</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B178" s="7">
+        <v>175</v>
+      </c>
+      <c r="B178" s="6">
         <v>26051</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C178" s="10">
+        <v>5517997354307</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B179" s="7">
+        <v>176</v>
+      </c>
+      <c r="B179" s="6">
         <v>30591</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C179" s="10">
+        <v>5517996415504</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B180" s="7">
+        <v>177</v>
+      </c>
+      <c r="B180" s="6">
         <v>36186</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>335</v>
-      </c>
+      <c r="C180" s="10">
+        <v>5517996293156</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D181" s="1"/>
+    </row>
+    <row r="182" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D182" s="1"/>
+    </row>
+    <row r="183" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D183" s="1"/>
+    </row>
+    <row r="184" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D184" s="1"/>
+    </row>
+    <row r="185" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D185" s="1"/>
+    </row>
+    <row r="186" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D186" s="1"/>
+    </row>
+    <row r="187" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D187" s="1"/>
+    </row>
+    <row r="188" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D188" s="1"/>
+    </row>
+    <row r="189" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D189" s="1"/>
+    </row>
+    <row r="190" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D190" s="1"/>
+    </row>
+    <row r="191" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D191" s="1"/>
+    </row>
+    <row r="192" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D192" s="1"/>
+    </row>
+    <row r="193" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D193" s="1"/>
+    </row>
+    <row r="194" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D194" s="1"/>
+    </row>
+    <row r="195" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D195" s="1"/>
+    </row>
+    <row r="196" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D196" s="1"/>
+    </row>
+    <row r="197" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D197" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
